--- a/biology/Botanique/Symphoricarpos/Symphoricarpos.xlsx
+++ b/biology/Botanique/Symphoricarpos/Symphoricarpos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symphorine
 Symphoricarpos, la Symphorine, est un genre de plantes dicotylédones de la famille des Caprifoliaceae comme les Chèvrefeuilles. Il comprend quinze espèces toutes originaires d'Amérique du Nord, et une espèce endémique de Chine : Symphoricarpos sinensis.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (19 décembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (19 décembre 2020) :
 Symphoricarpos acutus (A. Gray) Dieck
 Symphoricarpos albus (L.) S.F. Blake
 Symphoricarpos ×chenaultii Rehder
@@ -528,7 +542,7 @@
 Symphoricarpos oreophilus A. Gray
 Symphoricarpos palmeri G.N. Jones
 Symphoricarpos rotundifolius A. Gray
-Selon World Flora Online (WFO)       (19 décembre 2020)[3] :
+Selon World Flora Online (WFO)       (19 décembre 2020) :
 Symphoricarpos acutus (A. Gray) Dieck
 Symphoricarpos albus (L.) S.F.Blake
 Symphoricarpos guadalupensis Correll
@@ -575,10 +589,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des arbustes à feuilles caduques. Les bourgeons d'hiver ont plusieurs paires d'écailles. Les feuilles sont opposées, entières ou parfois sinueuses, brièvement pétiolées, estipulées[4]. 
-Appareil reproducteur
-Les fleurs forment un épi à l'apex des branches latérales, parfois solitaires à l'aisselle des feuilles supérieures. Le calice est cupulaire, quadrilobé ou pentalobé. la corolle est rougeâtre ou blanche, campanulée à en forme d'entonnoir ou hypocratique, quadrilobée ou pentalobée, régulière ; le tube est légèrement gibbeux à la base, à l'intérieur long pubescent ou glabre. Il y a quatre ou cinq étamines, insérées dans le tube de la corolle, incluses ou légèrement exsertées ; les anthères sont intruses. L'ovaire est quadrilobé, à deux locules avec plusieurs ovules stériles, les deux autres ayant chacun un ovule fertile ; le style est élancé ; les stigmates sont capitonnés ou légèrement lobés. Le fruit est une drupe en forme de baie, blanc, rouge ou noir bleuâtre, globulaire, ovoïde ou ellipsoïde ; il y a deux pyrènes, ovoïdes, plus ou moins comprimés ; les graines sont avec endosperme, l'embryon est petit[4].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbustes à feuilles caduques. Les bourgeons d'hiver ont plusieurs paires d'écailles. Les feuilles sont opposées, entières ou parfois sinueuses, brièvement pétiolées, estipulées. 
 </t>
         </is>
       </c>
@@ -604,12 +621,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le genre comprend quinze espèces toutes originaires d'Amérique du Nord, et une espèce endémique de Chine : Symphoricarpos sinensis[4]. Cependant plusieurs espèces ont été introduites en Europe notamment[1], comme plantes ornementales. L'espèce hybride Symphoricarpos × chenaultii sert souvent de buisson couvre-sol.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs forment un épi à l'apex des branches latérales, parfois solitaires à l'aisselle des feuilles supérieures. Le calice est cupulaire, quadrilobé ou pentalobé. la corolle est rougeâtre ou blanche, campanulée à en forme d'entonnoir ou hypocratique, quadrilobée ou pentalobée, régulière ; le tube est légèrement gibbeux à la base, à l'intérieur long pubescent ou glabre. Il y a quatre ou cinq étamines, insérées dans le tube de la corolle, incluses ou légèrement exsertées ; les anthères sont intruses. L'ovaire est quadrilobé, à deux locules avec plusieurs ovules stériles, les deux autres ayant chacun un ovule fertile ; le style est élancé ; les stigmates sont capitonnés ou légèrement lobés. Le fruit est une drupe en forme de baie, blanc, rouge ou noir bleuâtre, globulaire, ovoïde ou ellipsoïde ; il y a deux pyrènes, ovoïdes, plus ou moins comprimés ; les graines sont avec endosperme, l'embryon est petit.
 </t>
         </is>
       </c>
@@ -635,12 +658,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre comprend quinze espèces toutes originaires d'Amérique du Nord, et une espèce endémique de Chine : Symphoricarpos sinensis. Cependant plusieurs espèces ont été introduites en Europe notamment, comme plantes ornementales. L'espèce hybride Symphoricarpos × chenaultii sert souvent de buisson couvre-sol.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Symphoricarpos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symphoricarpos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Symphorine blanche (Symphoricarpos albus) et la Symphorine de Chenault (Symphoricarpos ×chenaultii) sont des plantes hôtes de la Drosophile à ailes tachetées (Drosophila  suzukii)[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Symphorine blanche (Symphoricarpos albus) et la Symphorine de Chenault (Symphoricarpos ×chenaultii) sont des plantes hôtes de la Drosophile à ailes tachetées (Drosophila  suzukii).
 </t>
         </is>
       </c>
